--- a/doc/程序运行时间测试表.xlsx
+++ b/doc/程序运行时间测试表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>函数名</t>
   </si>
@@ -38,18 +38,24 @@
   <si>
     <t>GetSpeed</t>
   </si>
+  <si>
+    <t>TFT_showint8</t>
+  </si>
+  <si>
+    <t>dsp_single_colour</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,13 +87,42 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -95,13 +130,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -133,20 +167,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -165,6 +185,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -172,22 +200,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,22 +209,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +224,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -237,61 +248,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,67 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,36 +405,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,19 +460,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,6 +490,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -507,170 +515,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1030,12 +1026,12 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.2222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.4444444444444" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.5555555555556" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.8888888888889" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.1111111111111" style="1" customWidth="1"/>
@@ -1043,13 +1039,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1057,11 +1053,11 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
         <v>703</v>
       </c>
       <c r="D2" s="1">
@@ -1069,11 +1065,11 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
         <v>3282</v>
       </c>
       <c r="D3" s="1">
@@ -1081,91 +1077,105 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
         <v>22</v>
       </c>
       <c r="D4" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
+        <v>4066</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
+        <v>95327</v>
+      </c>
+      <c r="D6" s="1">
+        <v>95328</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
